--- a/src/templates/excel/TEST2.xlsx
+++ b/src/templates/excel/TEST2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\web-api-cafe\src\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8AF23C-9ABB-4A07-8CF5-D4673620F5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930B8A13-4F4A-4BB8-BC42-424E3AE34068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ECC8A698-281F-46B3-AB76-C2C4B252869D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECC8A698-281F-46B3-AB76-C2C4B252869D}"/>
   </bookViews>
   <sheets>
     <sheet name="BaoCaoDoanhThu" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,19 +36,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>THỐNG KÊ SẢN PHẨM</t>
   </si>
   <si>
     <t>QUÝ</t>
   </si>
+  <si>
+    <t>BÁO CÁO TỔNG QUAN BÁN HÀNG THEO NĂM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +74,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -121,6 +132,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,18 +453,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8003F0-02E2-461F-AB7F-20038B2A93C2}">
-  <dimension ref="B4:G7"/>
+  <dimension ref="B1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="4" spans="2:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -457,21 +504,22 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B1:M2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
